--- a/biology/Médecine/Jules-Édouard_Prévost_(médecin)/Jules-Édouard_Prévost_(médecin).xlsx
+++ b/biology/Médecine/Jules-Édouard_Prévost_(médecin)/Jules-Édouard_Prévost_(médecin).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jules-%C3%89douard_Pr%C3%A9vost_(m%C3%A9decin)</t>
+          <t>Jules-Édouard_Prévost_(médecin)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jules-Édouard Prévost[1], né le 8 novembre 1828 à Sainte-Anne-des-Plaines, est médecin, conseiller municipal et animateur culturel. Il est connu pour avoir joué un grand rôle dans le développement de la région de Saint-Jérôme au Québec.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jules-Édouard Prévost, né le 8 novembre 1828 à Sainte-Anne-des-Plaines, est médecin, conseiller municipal et animateur culturel. Il est connu pour avoir joué un grand rôle dans le développement de la région de Saint-Jérôme au Québec.
 Tel que le mentionne le répertoire du patrimoine culturel du Québec, il est à l'origine de plusieurs initiatives concernant le développement de sa région.
 1858: Création d'un couvent de religieuses enseignantes pour la formation des jeunes filles.
 1969: Fondation de la commission scolaire locale, dont il deviendra le premier commissaire et le premier président
